--- a/va_facility_data_2025-02-20/Mountain Home VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mountain%20Home%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Mountain Home VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mountain%20Home%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb51fb4107ee341c783f572693bc2945f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra1dd270de2dc4c288e6ff4c541a8fa4e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc699a3d4172346e79a14d38aef62994e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R39d87ce5b93a4117b9b33f0ce8ee6ce5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0e3982f8c75f4995bf38d6279a80c62a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re9bb6f3092894a7ca66ab2612c0dd8e2"/>
   </x:sheets>
 </x:workbook>
 </file>
